--- a/Client_Part2/src/main/java/Output/PlotPerformance.xlsx
+++ b/Client_Part2/src/main/java/Output/PlotPerformance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangzhaolei/Documents/Assignment1/Client_Part2/src/main/java/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB2BD66-EC98-1C43-A539-B365E7D2493F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6888A3-FC75-5A46-8FFB-C581E3F5FE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plot Performance" sheetId="1" r:id="rId1"/>
@@ -18,48 +18,12 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Plot Performance'!$A$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Plot Performance'!$A$2:$A$225</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Plot Performance'!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Plot Performance'!$B$2:$B$225</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Plot Performance'!$A$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Plot Performance'!$A$2:$A$225</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Plot Performance'!$B$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Plot Performance'!$B$2:$B$225</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Plot Performance'!$A$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Plot Performance'!$A$2:$A$225</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Plot Performance'!$B$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Plot Performance'!$B$2:$B$225</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Plot Performance'!$B$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Plot Performance'!$A$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Plot Performance'!$A$2:$A$225</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Plot Performance'!$B$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Plot Performance'!$B$2:$B$225</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Plot Performance'!$A$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Plot Performance'!$A$2:$A$225</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Plot Performance'!$B$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Plot Performance'!$B$2:$B$225</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Plot Performance'!$A$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Plot Performance'!$A$2:$A$225</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Plot Performance'!$B$2:$B$225</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Plot Performance'!$B$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Plot Performance'!$B$2:$B$225</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Plot Performance'!$A$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Plot Performance'!$A$2:$A$225</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Plot Performance'!$B$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Plot Performance'!$B$2:$B$225</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'Plot Performance'!$A$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'Plot Performance'!$A$2:$A$225</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'Plot Performance'!$B$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'Plot Performance'!$B$2:$B$225</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Plot Performance'!$A$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'Plot Performance'!$A$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'Plot Performance'!$A$2:$A$225</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'Plot Performance'!$B$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'Plot Performance'!$B$2:$B$225</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'Plot Performance'!$A$2:$A$225</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'Plot Performance'!$B$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'Plot Performance'!$B$2:$B$225</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Plot Performance'!$A$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Plot Performance'!$A$2:$A$225</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -135,6 +99,2212 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Performance'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughput/second</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Performance'!$A$2:$A$225</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="224"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Performance'!$B$2:$B$225</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="224"/>
+                <c:pt idx="0">
+                  <c:v>1493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2379</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2243</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2341</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2377</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2145</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2204</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2216</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2213</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2308</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2228</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2276</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2260</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2294</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2176</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2236</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2270</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2454</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2403</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2303</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2529</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2531</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2498</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2325</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2281</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2321</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2342</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2174</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2338</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2363</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2402</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2172</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2433</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2377</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2230</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2213</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2275</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2523</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2411</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2213</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2093</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2243</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2142</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2146</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2276</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2346</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2152</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2284</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1751</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2435</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2411</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2585</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2294</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2199</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2321</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2338</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2104</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2087</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2285</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2171</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2169</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2249</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2185</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2252</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2228</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2296</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2207</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2241</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2108</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2215</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2404</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2198</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2137</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2214</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2239</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2252</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2397</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2268</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2425</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2151</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2193</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2252</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2117</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2277</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2268</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2177</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2169</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2194</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2132</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2137</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2270</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2199</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2254</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2281</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2131</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2167</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2431</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2244</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2232</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2162</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2140</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2322</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2083</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2237</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1887</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1819</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2246</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2128</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2262</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2301</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2298</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2172</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2167</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2188</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2224</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2106</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2212</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2148</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2286</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2513</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2146</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2331</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2382</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2298</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2769</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2828</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2791</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2755</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2629</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2505</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2817</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2589</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2327</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2328</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2261</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2370</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2428</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2364</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1557</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1710</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2918</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2920</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2496</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2359</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2351</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2297</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2318</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2172</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2403</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2295</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2233</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2335</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2369</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2269</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2281</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2317</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2339</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2230</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DEC-D545-8BB1-5E44A46E582B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1005052159"/>
+        <c:axId val="891803423"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1005052159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="891803423"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="891803423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1005052159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8015CE-0237-D586-20BE-2B600082055D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="Y39" sqref="Y39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="M10:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2245,5 +4415,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>